--- a/Code/Results/Cases/Case_1_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014374900911895</v>
+        <v>1.040887619778105</v>
       </c>
       <c r="D2">
-        <v>1.043554470400895</v>
+        <v>1.053408457646288</v>
       </c>
       <c r="E2">
-        <v>1.030319280629632</v>
+        <v>1.049754726995975</v>
       </c>
       <c r="F2">
-        <v>1.044679983208994</v>
+        <v>1.061874243139964</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053212211432192</v>
+        <v>1.04432885826195</v>
       </c>
       <c r="J2">
-        <v>1.036134000292117</v>
+        <v>1.045971798341072</v>
       </c>
       <c r="K2">
-        <v>1.054438623124677</v>
+        <v>1.05615450815779</v>
       </c>
       <c r="L2">
-        <v>1.041371781311805</v>
+        <v>1.052510904218774</v>
       </c>
       <c r="M2">
-        <v>1.055550065028666</v>
+        <v>1.06459711976903</v>
       </c>
       <c r="N2">
-        <v>1.037605429418764</v>
+        <v>1.047457198269359</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018322383780398</v>
+        <v>1.041738859793997</v>
       </c>
       <c r="D3">
-        <v>1.04617713872226</v>
+        <v>1.05399211725576</v>
       </c>
       <c r="E3">
-        <v>1.033467584998221</v>
+        <v>1.050481294714198</v>
       </c>
       <c r="F3">
-        <v>1.047881098061475</v>
+        <v>1.062610504610459</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054240937109209</v>
+        <v>1.04450753464971</v>
       </c>
       <c r="J3">
-        <v>1.038325725536683</v>
+        <v>1.046469330863596</v>
       </c>
       <c r="K3">
-        <v>1.056251394911495</v>
+        <v>1.05655179430724</v>
       </c>
       <c r="L3">
-        <v>1.04368942721853</v>
+        <v>1.053050002825333</v>
       </c>
       <c r="M3">
-        <v>1.057935903291088</v>
+        <v>1.065148284883627</v>
       </c>
       <c r="N3">
-        <v>1.039800267164571</v>
+        <v>1.047955437345133</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020831570443222</v>
+        <v>1.04229046237491</v>
       </c>
       <c r="D4">
-        <v>1.0478478410519</v>
+        <v>1.054370367610957</v>
       </c>
       <c r="E4">
-        <v>1.03547450939644</v>
+        <v>1.05095247351258</v>
       </c>
       <c r="F4">
-        <v>1.049921455690373</v>
+        <v>1.063087908635912</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054887396173119</v>
+        <v>1.044622353916473</v>
       </c>
       <c r="J4">
-        <v>1.039717007120704</v>
+        <v>1.046791391578261</v>
       </c>
       <c r="K4">
-        <v>1.057401145875564</v>
+        <v>1.056808746313628</v>
       </c>
       <c r="L4">
-        <v>1.045162841001561</v>
+        <v>1.053399203888276</v>
       </c>
       <c r="M4">
-        <v>1.059452513213798</v>
+        <v>1.065505247151678</v>
       </c>
       <c r="N4">
-        <v>1.041193524528023</v>
+        <v>1.048277955422953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021875967392917</v>
+        <v>1.042522544308871</v>
       </c>
       <c r="D5">
-        <v>1.048544049132433</v>
+        <v>1.054529521830665</v>
       </c>
       <c r="E5">
-        <v>1.036311186051089</v>
+        <v>1.051150804324366</v>
       </c>
       <c r="F5">
-        <v>1.050772007091835</v>
+        <v>1.063288845080097</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055154651783792</v>
+        <v>1.044670432529011</v>
       </c>
       <c r="J5">
-        <v>1.040295622645343</v>
+        <v>1.046926814212198</v>
       </c>
       <c r="K5">
-        <v>1.057879056709724</v>
+        <v>1.056916739133787</v>
       </c>
       <c r="L5">
-        <v>1.045776138916577</v>
+        <v>1.053546094654594</v>
       </c>
       <c r="M5">
-        <v>1.060083745731501</v>
+        <v>1.0656553894196</v>
       </c>
       <c r="N5">
-        <v>1.041772961753075</v>
+        <v>1.048413570372564</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022050721941645</v>
+        <v>1.042561522873373</v>
       </c>
       <c r="D6">
-        <v>1.048660588861503</v>
+        <v>1.054556252547057</v>
       </c>
       <c r="E6">
-        <v>1.036451261055863</v>
+        <v>1.051184119382235</v>
       </c>
       <c r="F6">
-        <v>1.050914401034273</v>
+        <v>1.06332259695958</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055199262621503</v>
+        <v>1.044678493893032</v>
       </c>
       <c r="J6">
-        <v>1.04039241114449</v>
+        <v>1.046949553889074</v>
       </c>
       <c r="K6">
-        <v>1.057958984110503</v>
+        <v>1.056934869815461</v>
       </c>
       <c r="L6">
-        <v>1.045878759709665</v>
+        <v>1.053570763297214</v>
       </c>
       <c r="M6">
-        <v>1.060189364551823</v>
+        <v>1.06568060333625</v>
       </c>
       <c r="N6">
-        <v>1.041869887702993</v>
+        <v>1.048436342342389</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020845566417259</v>
+        <v>1.042293562727693</v>
       </c>
       <c r="D7">
-        <v>1.047857167807788</v>
+        <v>1.054372493698526</v>
       </c>
       <c r="E7">
-        <v>1.03548571648457</v>
+        <v>1.050955122649541</v>
       </c>
       <c r="F7">
-        <v>1.049932848887791</v>
+        <v>1.063090592634635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054890984895994</v>
+        <v>1.044622997098308</v>
       </c>
       <c r="J7">
-        <v>1.039724763070671</v>
+        <v>1.046793200992584</v>
       </c>
       <c r="K7">
-        <v>1.057407552983312</v>
+        <v>1.056810189437827</v>
       </c>
       <c r="L7">
-        <v>1.045171059777038</v>
+        <v>1.05340116631135</v>
       </c>
       <c r="M7">
-        <v>1.059460972519931</v>
+        <v>1.065507253066097</v>
       </c>
       <c r="N7">
-        <v>1.041201291492329</v>
+        <v>1.048279767406851</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015718513342115</v>
+        <v>1.041175135015982</v>
       </c>
       <c r="D8">
-        <v>1.044446359680451</v>
+        <v>1.053605586151701</v>
       </c>
       <c r="E8">
-        <v>1.031389651983862</v>
+        <v>1.050000057261556</v>
       </c>
       <c r="F8">
-        <v>1.045768352726022</v>
+        <v>1.062122859163229</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053563897604266</v>
+        <v>1.044389407200061</v>
       </c>
       <c r="J8">
-        <v>1.036880376762551</v>
+        <v>1.046139915317639</v>
       </c>
       <c r="K8">
-        <v>1.055056140893944</v>
+        <v>1.056288796615795</v>
       </c>
       <c r="L8">
-        <v>1.042160576539125</v>
+        <v>1.052693017966274</v>
       </c>
       <c r="M8">
-        <v>1.056362096833382</v>
+        <v>1.064783321017868</v>
       </c>
       <c r="N8">
-        <v>1.038352865829396</v>
+        <v>1.047625553991316</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006322976530461</v>
+        <v>1.039210475207469</v>
       </c>
       <c r="D9">
-        <v>1.038227298886396</v>
+        <v>1.05225875195054</v>
       </c>
       <c r="E9">
-        <v>1.023930656102877</v>
+        <v>1.048325168259044</v>
       </c>
       <c r="F9">
-        <v>1.038183296727491</v>
+        <v>1.060425291217736</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051074638391838</v>
+        <v>1.043971727362314</v>
       </c>
       <c r="J9">
-        <v>1.031654413124046</v>
+        <v>1.044989751330764</v>
       </c>
       <c r="K9">
-        <v>1.050729182622882</v>
+        <v>1.055369188091922</v>
       </c>
       <c r="L9">
-        <v>1.036647050147142</v>
+        <v>1.051448057091855</v>
       </c>
       <c r="M9">
-        <v>1.050685829169504</v>
+        <v>1.063510196503324</v>
       </c>
       <c r="N9">
-        <v>1.033119480723097</v>
+        <v>1.046473756639654</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9997935977053088</v>
+        <v>1.037904941814271</v>
       </c>
       <c r="D10">
-        <v>1.033930572545681</v>
+        <v>1.051364040638908</v>
       </c>
       <c r="E10">
-        <v>1.018781741524976</v>
+        <v>1.047214110017054</v>
       </c>
       <c r="F10">
-        <v>1.032946940979556</v>
+        <v>1.05929888229592</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049308253850073</v>
+        <v>1.043689242821746</v>
       </c>
       <c r="J10">
-        <v>1.028015407145772</v>
+        <v>1.044223734501926</v>
       </c>
       <c r="K10">
-        <v>1.047713082448015</v>
+        <v>1.054755628712814</v>
       </c>
       <c r="L10">
-        <v>1.032819968763773</v>
+        <v>1.050620114620419</v>
       </c>
       <c r="M10">
-        <v>1.046745761716334</v>
+        <v>1.062663251171885</v>
       </c>
       <c r="N10">
-        <v>1.029475306938934</v>
+        <v>1.045706651979055</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9968978162175913</v>
+        <v>1.037340658803419</v>
       </c>
       <c r="D11">
-        <v>1.032031864775183</v>
+        <v>1.050977399131944</v>
       </c>
       <c r="E11">
-        <v>1.016507066269034</v>
+        <v>1.046734346918927</v>
       </c>
       <c r="F11">
-        <v>1.030633666499121</v>
+        <v>1.058812419030221</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048516726997411</v>
+        <v>1.043565977491487</v>
       </c>
       <c r="J11">
-        <v>1.02640022155422</v>
+        <v>1.043892237919165</v>
       </c>
       <c r="K11">
-        <v>1.046373974364499</v>
+        <v>1.054489852790369</v>
       </c>
       <c r="L11">
-        <v>1.031124255975706</v>
+        <v>1.050262107357847</v>
       </c>
       <c r="M11">
-        <v>1.045000110715367</v>
+        <v>1.062296963458942</v>
       </c>
       <c r="N11">
-        <v>1.027857827598578</v>
+        <v>1.045374684633123</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9958114032845429</v>
+        <v>1.037131214197915</v>
       </c>
       <c r="D12">
-        <v>1.031320641632091</v>
+        <v>1.050833901607583</v>
       </c>
       <c r="E12">
-        <v>1.015655064297726</v>
+        <v>1.046556343741661</v>
       </c>
       <c r="F12">
-        <v>1.029767223059226</v>
+        <v>1.058631919258246</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048218592558661</v>
+        <v>1.043520049663263</v>
       </c>
       <c r="J12">
-        <v>1.025794096042169</v>
+        <v>1.043769135818963</v>
       </c>
       <c r="K12">
-        <v>1.045871420613633</v>
+        <v>1.054391118079364</v>
       </c>
       <c r="L12">
-        <v>1.03048836075404</v>
+        <v>1.050129203784398</v>
       </c>
       <c r="M12">
-        <v>1.044345518689608</v>
+        <v>1.062160976484973</v>
       </c>
       <c r="N12">
-        <v>1.027250841318776</v>
+        <v>1.04525140771382</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9960449391499852</v>
+        <v>1.037176133724158</v>
       </c>
       <c r="D13">
-        <v>1.031473474704972</v>
+        <v>1.050864676926136</v>
       </c>
       <c r="E13">
-        <v>1.015838147302671</v>
+        <v>1.04659451684521</v>
       </c>
       <c r="F13">
-        <v>1.029953408400023</v>
+        <v>1.058670628242981</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048282732110905</v>
+        <v>1.043529907733325</v>
       </c>
       <c r="J13">
-        <v>1.025924395455506</v>
+        <v>1.043795540235408</v>
       </c>
       <c r="K13">
-        <v>1.045979456017559</v>
+        <v>1.054412297607136</v>
       </c>
       <c r="L13">
-        <v>1.030625039375939</v>
+        <v>1.050157708576034</v>
       </c>
       <c r="M13">
-        <v>1.044486214431347</v>
+        <v>1.06219014302124</v>
       </c>
       <c r="N13">
-        <v>1.027381325772226</v>
+        <v>1.045277849627565</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9968082360889752</v>
+        <v>1.037323342870216</v>
       </c>
       <c r="D14">
-        <v>1.031973197712384</v>
+        <v>1.050965535156019</v>
       </c>
       <c r="E14">
-        <v>1.01643678587864</v>
+        <v>1.046719628984338</v>
       </c>
       <c r="F14">
-        <v>1.030562194453037</v>
+        <v>1.058797494885739</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04849216799585</v>
+        <v>1.043562183966887</v>
       </c>
       <c r="J14">
-        <v>1.026350246427578</v>
+        <v>1.043882061631178</v>
       </c>
       <c r="K14">
-        <v>1.046332539199618</v>
+        <v>1.0544816916196</v>
       </c>
       <c r="L14">
-        <v>1.031071817155362</v>
+        <v>1.05025111994227</v>
       </c>
       <c r="M14">
-        <v>1.044946129390805</v>
+        <v>1.062285721324152</v>
       </c>
       <c r="N14">
-        <v>1.027807781501525</v>
+        <v>1.045364493893641</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9972770832953358</v>
+        <v>1.037414063905472</v>
       </c>
       <c r="D15">
-        <v>1.032280297216409</v>
+        <v>1.051027692982074</v>
       </c>
       <c r="E15">
-        <v>1.016804678570749</v>
+        <v>1.046796741555953</v>
       </c>
       <c r="F15">
-        <v>1.030936325770622</v>
+        <v>1.058875687428429</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048620657928997</v>
+        <v>1.043582051680096</v>
       </c>
       <c r="J15">
-        <v>1.026611801681146</v>
+        <v>1.043935374400266</v>
       </c>
       <c r="K15">
-        <v>1.046549397695847</v>
+        <v>1.05452444578818</v>
       </c>
       <c r="L15">
-        <v>1.031346285033815</v>
+        <v>1.050308683920112</v>
       </c>
       <c r="M15">
-        <v>1.045228672125426</v>
+        <v>1.062344619411071</v>
       </c>
       <c r="N15">
-        <v>1.028069708193553</v>
+        <v>1.045417882372976</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9999842958552048</v>
+        <v>1.037942413091826</v>
       </c>
       <c r="D16">
-        <v>1.034055760252677</v>
+        <v>1.051389717248993</v>
       </c>
       <c r="E16">
-        <v>1.018931727382771</v>
+        <v>1.047245978558927</v>
       </c>
       <c r="F16">
-        <v>1.033099473575646</v>
+        <v>1.059331194396644</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049360212940086</v>
+        <v>1.043697403636105</v>
       </c>
       <c r="J16">
-        <v>1.028121749596423</v>
+        <v>1.044245739038468</v>
       </c>
       <c r="K16">
-        <v>1.047801242272653</v>
+        <v>1.054773265386187</v>
       </c>
       <c r="L16">
-        <v>1.032931675128425</v>
+        <v>1.050643884993196</v>
       </c>
       <c r="M16">
-        <v>1.046860761347201</v>
+        <v>1.06268757000654</v>
       </c>
       <c r="N16">
-        <v>1.029581800408063</v>
+        <v>1.045728687764563</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00166377299926</v>
+        <v>1.038274107314048</v>
       </c>
       <c r="D17">
-        <v>1.035159083231901</v>
+        <v>1.051617014249545</v>
       </c>
       <c r="E17">
-        <v>1.020253670283317</v>
+        <v>1.047528131219208</v>
       </c>
       <c r="F17">
-        <v>1.034443867714204</v>
+        <v>1.059617265891757</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04981689371003</v>
+        <v>1.04376950770449</v>
       </c>
       <c r="J17">
-        <v>1.02905816466551</v>
+        <v>1.044440475425419</v>
       </c>
       <c r="K17">
-        <v>1.048577505104042</v>
+        <v>1.054929317401514</v>
       </c>
       <c r="L17">
-        <v>1.03391566015855</v>
+        <v>1.05085428200508</v>
       </c>
       <c r="M17">
-        <v>1.047873771190521</v>
+        <v>1.062902814252112</v>
       </c>
       <c r="N17">
-        <v>1.030519545293957</v>
+        <v>1.04592370069952</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002636807714104</v>
+        <v>1.038467677390471</v>
       </c>
       <c r="D18">
-        <v>1.035798962849576</v>
+        <v>1.051749667328249</v>
       </c>
       <c r="E18">
-        <v>1.02102040099314</v>
+        <v>1.04769283451977</v>
       </c>
       <c r="F18">
-        <v>1.035223622293922</v>
+        <v>1.05978424983775</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050080702934374</v>
+        <v>1.043811473299888</v>
       </c>
       <c r="J18">
-        <v>1.029600568408927</v>
+        <v>1.044554080467586</v>
       </c>
       <c r="K18">
-        <v>1.049027103022817</v>
+        <v>1.055020330093994</v>
       </c>
       <c r="L18">
-        <v>1.034485898167345</v>
+        <v>1.050977050899829</v>
       </c>
       <c r="M18">
-        <v>1.048460840641126</v>
+        <v>1.063028405420445</v>
       </c>
       <c r="N18">
-        <v>1.031062719312903</v>
+        <v>1.046037467073877</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002967486635386</v>
+        <v>1.038533696429582</v>
       </c>
       <c r="D19">
-        <v>1.036016529255818</v>
+        <v>1.051794911189756</v>
       </c>
       <c r="E19">
-        <v>1.021281109737379</v>
+        <v>1.047749015811205</v>
       </c>
       <c r="F19">
-        <v>1.035488759511732</v>
+        <v>1.059841207893398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050170223512936</v>
+        <v>1.043825766941836</v>
       </c>
       <c r="J19">
-        <v>1.029784878162266</v>
+        <v>1.044592819964439</v>
       </c>
       <c r="K19">
-        <v>1.049179869521375</v>
+        <v>1.055051361363236</v>
       </c>
       <c r="L19">
-        <v>1.034679713390879</v>
+        <v>1.051018919993917</v>
       </c>
       <c r="M19">
-        <v>1.048660378147665</v>
+        <v>1.063071235978069</v>
       </c>
       <c r="N19">
-        <v>1.031247290807233</v>
+        <v>1.046076261585259</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001484264669648</v>
+        <v>1.038238509467516</v>
       </c>
       <c r="D20">
-        <v>1.035041088277508</v>
+        <v>1.051592619703507</v>
       </c>
       <c r="E20">
-        <v>1.020112288962613</v>
+        <v>1.047497845610654</v>
       </c>
       <c r="F20">
-        <v>1.03430008494357</v>
+        <v>1.059586560360424</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049768162329652</v>
+        <v>1.043761781077736</v>
       </c>
       <c r="J20">
-        <v>1.028958090061094</v>
+        <v>1.044419580119983</v>
       </c>
       <c r="K20">
-        <v>1.048494549914985</v>
+        <v>1.05491257550134</v>
       </c>
       <c r="L20">
-        <v>1.033810472662446</v>
+        <v>1.050831703433512</v>
       </c>
       <c r="M20">
-        <v>1.047765479734475</v>
+        <v>1.06287971613802</v>
       </c>
       <c r="N20">
-        <v>1.030419328572123</v>
+        <v>1.045902775720354</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.996583766179319</v>
+        <v>1.03727998914662</v>
       </c>
       <c r="D21">
-        <v>1.03182620805058</v>
+        <v>1.05093583163814</v>
       </c>
       <c r="E21">
-        <v>1.016260699857866</v>
+        <v>1.046682780979872</v>
       </c>
       <c r="F21">
-        <v>1.030383123067168</v>
+        <v>1.05876013043936</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048430609239637</v>
+        <v>1.04355268332305</v>
       </c>
       <c r="J21">
-        <v>1.026225016378622</v>
+        <v>1.043856582383838</v>
       </c>
       <c r="K21">
-        <v>1.04622870859579</v>
+        <v>1.054461257179283</v>
       </c>
       <c r="L21">
-        <v>1.030940420730472</v>
+        <v>1.050223610505409</v>
       </c>
       <c r="M21">
-        <v>1.04481086842451</v>
+        <v>1.062257573989026</v>
       </c>
       <c r="N21">
-        <v>1.027682373611534</v>
+        <v>1.045338978462846</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9934399287009583</v>
+        <v>1.036678228356666</v>
       </c>
       <c r="D22">
-        <v>1.029770293634562</v>
+        <v>1.050523568618231</v>
       </c>
       <c r="E22">
-        <v>1.013797892438902</v>
+        <v>1.046171488351573</v>
       </c>
       <c r="F22">
-        <v>1.027878615289705</v>
+        <v>1.058241646630095</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047565700103155</v>
+        <v>1.043420396420535</v>
       </c>
       <c r="J22">
-        <v>1.024470774758993</v>
+        <v>1.043502780454195</v>
       </c>
       <c r="K22">
-        <v>1.044774198357211</v>
+        <v>1.054177416878692</v>
       </c>
       <c r="L22">
-        <v>1.029100877967767</v>
+        <v>1.04984172035476</v>
       </c>
       <c r="M22">
-        <v>1.042917309076418</v>
+        <v>1.061866806219696</v>
       </c>
       <c r="N22">
-        <v>1.025925640767591</v>
+        <v>1.044984674093882</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9951126532341364</v>
+        <v>1.036997147338476</v>
       </c>
       <c r="D23">
-        <v>1.030863528105992</v>
+        <v>1.050742051380978</v>
       </c>
       <c r="E23">
-        <v>1.015107479736968</v>
+        <v>1.046442422592719</v>
       </c>
       <c r="F23">
-        <v>1.029210363007143</v>
+        <v>1.058516397305848</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048026515252458</v>
+        <v>1.043490601567025</v>
       </c>
       <c r="J23">
-        <v>1.025404214521917</v>
+        <v>1.043690320303881</v>
       </c>
       <c r="K23">
-        <v>1.045548155172512</v>
+        <v>1.054327892963912</v>
       </c>
       <c r="L23">
-        <v>1.030079457745088</v>
+        <v>1.050044125133972</v>
       </c>
       <c r="M23">
-        <v>1.043924602939344</v>
+        <v>1.0620739213423</v>
       </c>
       <c r="N23">
-        <v>1.026860406122046</v>
+        <v>1.045172480271666</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001565397042707</v>
+        <v>1.0382545942981</v>
       </c>
       <c r="D24">
-        <v>1.035094416444476</v>
+        <v>1.051603642318629</v>
       </c>
       <c r="E24">
-        <v>1.020176186474721</v>
+        <v>1.047511529976979</v>
       </c>
       <c r="F24">
-        <v>1.034365067789204</v>
+        <v>1.059600434487695</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049790189860754</v>
+        <v>1.04376527269056</v>
       </c>
       <c r="J24">
-        <v>1.02900332116614</v>
+        <v>1.04442902175178</v>
       </c>
       <c r="K24">
-        <v>1.048532043618496</v>
+        <v>1.054920140475875</v>
       </c>
       <c r="L24">
-        <v>1.033858013793165</v>
+        <v>1.050841905570389</v>
       </c>
       <c r="M24">
-        <v>1.047814423715088</v>
+        <v>1.062890153049383</v>
       </c>
       <c r="N24">
-        <v>1.030464623910527</v>
+        <v>1.045912230760351</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008797017238078</v>
+        <v>1.039717647126326</v>
       </c>
       <c r="D25">
-        <v>1.039860847486796</v>
+        <v>1.052606389161361</v>
       </c>
       <c r="E25">
-        <v>1.025888975056275</v>
+        <v>1.048757200257622</v>
       </c>
       <c r="F25">
-        <v>1.040174826796243</v>
+        <v>1.060863227639441</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051736587203812</v>
+        <v>1.044080421545827</v>
       </c>
       <c r="J25">
-        <v>1.033031910702266</v>
+        <v>1.0452869684067</v>
       </c>
       <c r="K25">
-        <v>1.051870356206858</v>
+        <v>1.055607020850229</v>
       </c>
       <c r="L25">
-        <v>1.038098264545493</v>
+        <v>1.051769557880132</v>
       </c>
       <c r="M25">
-        <v>1.052179923887106</v>
+        <v>1.063839018931781</v>
       </c>
       <c r="N25">
-        <v>1.034498934505879</v>
+        <v>1.046771395797929</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040887619778105</v>
+        <v>1.014374900911894</v>
       </c>
       <c r="D2">
-        <v>1.053408457646288</v>
+        <v>1.043554470400894</v>
       </c>
       <c r="E2">
-        <v>1.049754726995975</v>
+        <v>1.030319280629631</v>
       </c>
       <c r="F2">
-        <v>1.061874243139964</v>
+        <v>1.044679983208993</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04432885826195</v>
+        <v>1.053212211432192</v>
       </c>
       <c r="J2">
-        <v>1.045971798341072</v>
+        <v>1.036134000292116</v>
       </c>
       <c r="K2">
-        <v>1.05615450815779</v>
+        <v>1.054438623124677</v>
       </c>
       <c r="L2">
-        <v>1.052510904218774</v>
+        <v>1.041371781311804</v>
       </c>
       <c r="M2">
-        <v>1.06459711976903</v>
+        <v>1.055550065028665</v>
       </c>
       <c r="N2">
-        <v>1.047457198269359</v>
+        <v>1.037605429418762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041738859793997</v>
+        <v>1.018322383780398</v>
       </c>
       <c r="D3">
-        <v>1.05399211725576</v>
+        <v>1.046177138722259</v>
       </c>
       <c r="E3">
-        <v>1.050481294714198</v>
+        <v>1.03346758499822</v>
       </c>
       <c r="F3">
-        <v>1.062610504610459</v>
+        <v>1.047881098061475</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04450753464971</v>
+        <v>1.054240937109209</v>
       </c>
       <c r="J3">
-        <v>1.046469330863596</v>
+        <v>1.038325725536683</v>
       </c>
       <c r="K3">
-        <v>1.05655179430724</v>
+        <v>1.056251394911495</v>
       </c>
       <c r="L3">
-        <v>1.053050002825333</v>
+        <v>1.04368942721853</v>
       </c>
       <c r="M3">
-        <v>1.065148284883627</v>
+        <v>1.057935903291088</v>
       </c>
       <c r="N3">
-        <v>1.047955437345133</v>
+        <v>1.03980026716457</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04229046237491</v>
+        <v>1.020831570443221</v>
       </c>
       <c r="D4">
-        <v>1.054370367610957</v>
+        <v>1.0478478410519</v>
       </c>
       <c r="E4">
-        <v>1.05095247351258</v>
+        <v>1.03547450939644</v>
       </c>
       <c r="F4">
-        <v>1.063087908635912</v>
+        <v>1.049921455690373</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044622353916473</v>
+        <v>1.054887396173119</v>
       </c>
       <c r="J4">
-        <v>1.046791391578261</v>
+        <v>1.039717007120704</v>
       </c>
       <c r="K4">
-        <v>1.056808746313628</v>
+        <v>1.057401145875564</v>
       </c>
       <c r="L4">
-        <v>1.053399203888276</v>
+        <v>1.045162841001561</v>
       </c>
       <c r="M4">
-        <v>1.065505247151678</v>
+        <v>1.059452513213798</v>
       </c>
       <c r="N4">
-        <v>1.048277955422953</v>
+        <v>1.041193524528023</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042522544308871</v>
+        <v>1.021875967392916</v>
       </c>
       <c r="D5">
-        <v>1.054529521830665</v>
+        <v>1.048544049132433</v>
       </c>
       <c r="E5">
-        <v>1.051150804324366</v>
+        <v>1.036311186051089</v>
       </c>
       <c r="F5">
-        <v>1.063288845080097</v>
+        <v>1.050772007091835</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044670432529011</v>
+        <v>1.055154651783792</v>
       </c>
       <c r="J5">
-        <v>1.046926814212198</v>
+        <v>1.040295622645343</v>
       </c>
       <c r="K5">
-        <v>1.056916739133787</v>
+        <v>1.057879056709724</v>
       </c>
       <c r="L5">
-        <v>1.053546094654594</v>
+        <v>1.045776138916577</v>
       </c>
       <c r="M5">
-        <v>1.0656553894196</v>
+        <v>1.0600837457315</v>
       </c>
       <c r="N5">
-        <v>1.048413570372564</v>
+        <v>1.041772961753075</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042561522873373</v>
+        <v>1.022050721941644</v>
       </c>
       <c r="D6">
-        <v>1.054556252547057</v>
+        <v>1.048660588861503</v>
       </c>
       <c r="E6">
-        <v>1.051184119382235</v>
+        <v>1.036451261055862</v>
       </c>
       <c r="F6">
-        <v>1.06332259695958</v>
+        <v>1.050914401034273</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044678493893032</v>
+        <v>1.055199262621503</v>
       </c>
       <c r="J6">
-        <v>1.046949553889074</v>
+        <v>1.040392411144489</v>
       </c>
       <c r="K6">
-        <v>1.056934869815461</v>
+        <v>1.057958984110503</v>
       </c>
       <c r="L6">
-        <v>1.053570763297214</v>
+        <v>1.045878759709665</v>
       </c>
       <c r="M6">
-        <v>1.06568060333625</v>
+        <v>1.060189364551823</v>
       </c>
       <c r="N6">
-        <v>1.048436342342389</v>
+        <v>1.041869887702992</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042293562727693</v>
+        <v>1.020845566417258</v>
       </c>
       <c r="D7">
-        <v>1.054372493698526</v>
+        <v>1.047857167807788</v>
       </c>
       <c r="E7">
-        <v>1.050955122649541</v>
+        <v>1.035485716484569</v>
       </c>
       <c r="F7">
-        <v>1.063090592634635</v>
+        <v>1.049932848887791</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044622997098308</v>
+        <v>1.054890984895994</v>
       </c>
       <c r="J7">
-        <v>1.046793200992584</v>
+        <v>1.039724763070671</v>
       </c>
       <c r="K7">
-        <v>1.056810189437827</v>
+        <v>1.057407552983311</v>
       </c>
       <c r="L7">
-        <v>1.05340116631135</v>
+        <v>1.045171059777038</v>
       </c>
       <c r="M7">
-        <v>1.065507253066097</v>
+        <v>1.059460972519931</v>
       </c>
       <c r="N7">
-        <v>1.048279767406851</v>
+        <v>1.041201291492329</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041175135015982</v>
+        <v>1.015718513342116</v>
       </c>
       <c r="D8">
-        <v>1.053605586151701</v>
+        <v>1.044446359680451</v>
       </c>
       <c r="E8">
-        <v>1.050000057261556</v>
+        <v>1.031389651983863</v>
       </c>
       <c r="F8">
-        <v>1.062122859163229</v>
+        <v>1.045768352726023</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044389407200061</v>
+        <v>1.053563897604266</v>
       </c>
       <c r="J8">
-        <v>1.046139915317639</v>
+        <v>1.036880376762552</v>
       </c>
       <c r="K8">
-        <v>1.056288796615795</v>
+        <v>1.055056140893944</v>
       </c>
       <c r="L8">
-        <v>1.052693017966274</v>
+        <v>1.042160576539126</v>
       </c>
       <c r="M8">
-        <v>1.064783321017868</v>
+        <v>1.056362096833383</v>
       </c>
       <c r="N8">
-        <v>1.047625553991316</v>
+        <v>1.038352865829396</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039210475207469</v>
+        <v>1.006322976530461</v>
       </c>
       <c r="D9">
-        <v>1.05225875195054</v>
+        <v>1.038227298886396</v>
       </c>
       <c r="E9">
-        <v>1.048325168259044</v>
+        <v>1.023930656102877</v>
       </c>
       <c r="F9">
-        <v>1.060425291217736</v>
+        <v>1.038183296727491</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043971727362314</v>
+        <v>1.051074638391838</v>
       </c>
       <c r="J9">
-        <v>1.044989751330764</v>
+        <v>1.031654413124045</v>
       </c>
       <c r="K9">
-        <v>1.055369188091922</v>
+        <v>1.050729182622882</v>
       </c>
       <c r="L9">
-        <v>1.051448057091855</v>
+        <v>1.036647050147142</v>
       </c>
       <c r="M9">
-        <v>1.063510196503324</v>
+        <v>1.050685829169504</v>
       </c>
       <c r="N9">
-        <v>1.046473756639654</v>
+        <v>1.033119480723097</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037904941814271</v>
+        <v>0.9997935977053086</v>
       </c>
       <c r="D10">
-        <v>1.051364040638908</v>
+        <v>1.033930572545682</v>
       </c>
       <c r="E10">
-        <v>1.047214110017054</v>
+        <v>1.018781741524976</v>
       </c>
       <c r="F10">
-        <v>1.05929888229592</v>
+        <v>1.032946940979556</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043689242821746</v>
+        <v>1.049308253850073</v>
       </c>
       <c r="J10">
-        <v>1.044223734501926</v>
+        <v>1.028015407145772</v>
       </c>
       <c r="K10">
-        <v>1.054755628712814</v>
+        <v>1.047713082448015</v>
       </c>
       <c r="L10">
-        <v>1.050620114620419</v>
+        <v>1.032819968763773</v>
       </c>
       <c r="M10">
-        <v>1.062663251171885</v>
+        <v>1.046745761716334</v>
       </c>
       <c r="N10">
-        <v>1.045706651979055</v>
+        <v>1.029475306938934</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037340658803419</v>
+        <v>0.9968978162175905</v>
       </c>
       <c r="D11">
-        <v>1.050977399131944</v>
+        <v>1.032031864775182</v>
       </c>
       <c r="E11">
-        <v>1.046734346918927</v>
+        <v>1.016507066269033</v>
       </c>
       <c r="F11">
-        <v>1.058812419030221</v>
+        <v>1.03063366649912</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043565977491487</v>
+        <v>1.04851672699741</v>
       </c>
       <c r="J11">
-        <v>1.043892237919165</v>
+        <v>1.026400221554219</v>
       </c>
       <c r="K11">
-        <v>1.054489852790369</v>
+        <v>1.046373974364499</v>
       </c>
       <c r="L11">
-        <v>1.050262107357847</v>
+        <v>1.031124255975705</v>
       </c>
       <c r="M11">
-        <v>1.062296963458942</v>
+        <v>1.045000110715366</v>
       </c>
       <c r="N11">
-        <v>1.045374684633123</v>
+        <v>1.027857827598577</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.037131214197915</v>
+        <v>0.9958114032845433</v>
       </c>
       <c r="D12">
-        <v>1.050833901607583</v>
+        <v>1.031320641632091</v>
       </c>
       <c r="E12">
-        <v>1.046556343741661</v>
+        <v>1.015655064297727</v>
       </c>
       <c r="F12">
-        <v>1.058631919258246</v>
+        <v>1.029767223059227</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043520049663263</v>
+        <v>1.048218592558661</v>
       </c>
       <c r="J12">
-        <v>1.043769135818963</v>
+        <v>1.025794096042169</v>
       </c>
       <c r="K12">
-        <v>1.054391118079364</v>
+        <v>1.045871420613634</v>
       </c>
       <c r="L12">
-        <v>1.050129203784398</v>
+        <v>1.030488360754041</v>
       </c>
       <c r="M12">
-        <v>1.062160976484973</v>
+        <v>1.044345518689609</v>
       </c>
       <c r="N12">
-        <v>1.04525140771382</v>
+        <v>1.027250841318776</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037176133724158</v>
+        <v>0.9960449391499844</v>
       </c>
       <c r="D13">
-        <v>1.050864676926136</v>
+        <v>1.031473474704971</v>
       </c>
       <c r="E13">
-        <v>1.04659451684521</v>
+        <v>1.01583814730267</v>
       </c>
       <c r="F13">
-        <v>1.058670628242981</v>
+        <v>1.029953408400022</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043529907733325</v>
+        <v>1.048282732110905</v>
       </c>
       <c r="J13">
-        <v>1.043795540235408</v>
+        <v>1.025924395455505</v>
       </c>
       <c r="K13">
-        <v>1.054412297607136</v>
+        <v>1.045979456017559</v>
       </c>
       <c r="L13">
-        <v>1.050157708576034</v>
+        <v>1.030625039375938</v>
       </c>
       <c r="M13">
-        <v>1.06219014302124</v>
+        <v>1.044486214431346</v>
       </c>
       <c r="N13">
-        <v>1.045277849627565</v>
+        <v>1.027381325772225</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037323342870216</v>
+        <v>0.9968082360889745</v>
       </c>
       <c r="D14">
-        <v>1.050965535156019</v>
+        <v>1.031973197712384</v>
       </c>
       <c r="E14">
-        <v>1.046719628984338</v>
+        <v>1.016436785878639</v>
       </c>
       <c r="F14">
-        <v>1.058797494885739</v>
+        <v>1.030562194453037</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043562183966887</v>
+        <v>1.04849216799585</v>
       </c>
       <c r="J14">
-        <v>1.043882061631178</v>
+        <v>1.026350246427578</v>
       </c>
       <c r="K14">
-        <v>1.0544816916196</v>
+        <v>1.046332539199618</v>
       </c>
       <c r="L14">
-        <v>1.05025111994227</v>
+        <v>1.031071817155361</v>
       </c>
       <c r="M14">
-        <v>1.062285721324152</v>
+        <v>1.044946129390805</v>
       </c>
       <c r="N14">
-        <v>1.045364493893641</v>
+        <v>1.027807781501524</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037414063905472</v>
+        <v>0.997277083295335</v>
       </c>
       <c r="D15">
-        <v>1.051027692982074</v>
+        <v>1.032280297216409</v>
       </c>
       <c r="E15">
-        <v>1.046796741555953</v>
+        <v>1.016804678570748</v>
       </c>
       <c r="F15">
-        <v>1.058875687428429</v>
+        <v>1.030936325770622</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043582051680096</v>
+        <v>1.048620657928997</v>
       </c>
       <c r="J15">
-        <v>1.043935374400266</v>
+        <v>1.026611801681145</v>
       </c>
       <c r="K15">
-        <v>1.05452444578818</v>
+        <v>1.046549397695847</v>
       </c>
       <c r="L15">
-        <v>1.050308683920112</v>
+        <v>1.031346285033815</v>
       </c>
       <c r="M15">
-        <v>1.062344619411071</v>
+        <v>1.045228672125426</v>
       </c>
       <c r="N15">
-        <v>1.045417882372976</v>
+        <v>1.028069708193552</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037942413091826</v>
+        <v>0.9999842958552042</v>
       </c>
       <c r="D16">
-        <v>1.051389717248993</v>
+        <v>1.034055760252677</v>
       </c>
       <c r="E16">
-        <v>1.047245978558927</v>
+        <v>1.01893172738277</v>
       </c>
       <c r="F16">
-        <v>1.059331194396644</v>
+        <v>1.033099473575645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043697403636105</v>
+        <v>1.049360212940086</v>
       </c>
       <c r="J16">
-        <v>1.044245739038468</v>
+        <v>1.028121749596423</v>
       </c>
       <c r="K16">
-        <v>1.054773265386187</v>
+        <v>1.047801242272653</v>
       </c>
       <c r="L16">
-        <v>1.050643884993196</v>
+        <v>1.032931675128425</v>
       </c>
       <c r="M16">
-        <v>1.06268757000654</v>
+        <v>1.046860761347201</v>
       </c>
       <c r="N16">
-        <v>1.045728687764563</v>
+        <v>1.029581800408063</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038274107314048</v>
+        <v>1.00166377299926</v>
       </c>
       <c r="D17">
-        <v>1.051617014249545</v>
+        <v>1.035159083231902</v>
       </c>
       <c r="E17">
-        <v>1.047528131219208</v>
+        <v>1.020253670283317</v>
       </c>
       <c r="F17">
-        <v>1.059617265891757</v>
+        <v>1.034443867714204</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04376950770449</v>
+        <v>1.04981689371003</v>
       </c>
       <c r="J17">
-        <v>1.044440475425419</v>
+        <v>1.02905816466551</v>
       </c>
       <c r="K17">
-        <v>1.054929317401514</v>
+        <v>1.048577505104043</v>
       </c>
       <c r="L17">
-        <v>1.05085428200508</v>
+        <v>1.03391566015855</v>
       </c>
       <c r="M17">
-        <v>1.062902814252112</v>
+        <v>1.047873771190521</v>
       </c>
       <c r="N17">
-        <v>1.04592370069952</v>
+        <v>1.030519545293956</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038467677390471</v>
+        <v>1.002636807714103</v>
       </c>
       <c r="D18">
-        <v>1.051749667328249</v>
+        <v>1.035798962849577</v>
       </c>
       <c r="E18">
-        <v>1.04769283451977</v>
+        <v>1.021020400993139</v>
       </c>
       <c r="F18">
-        <v>1.05978424983775</v>
+        <v>1.035223622293922</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043811473299888</v>
+        <v>1.050080702934374</v>
       </c>
       <c r="J18">
-        <v>1.044554080467586</v>
+        <v>1.029600568408927</v>
       </c>
       <c r="K18">
-        <v>1.055020330093994</v>
+        <v>1.049027103022817</v>
       </c>
       <c r="L18">
-        <v>1.050977050899829</v>
+        <v>1.034485898167345</v>
       </c>
       <c r="M18">
-        <v>1.063028405420445</v>
+        <v>1.048460840641126</v>
       </c>
       <c r="N18">
-        <v>1.046037467073877</v>
+        <v>1.031062719312903</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038533696429582</v>
+        <v>1.002967486635385</v>
       </c>
       <c r="D19">
-        <v>1.051794911189756</v>
+        <v>1.036016529255817</v>
       </c>
       <c r="E19">
-        <v>1.047749015811205</v>
+        <v>1.021281109737378</v>
       </c>
       <c r="F19">
-        <v>1.059841207893398</v>
+        <v>1.035488759511731</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043825766941836</v>
+        <v>1.050170223512936</v>
       </c>
       <c r="J19">
-        <v>1.044592819964439</v>
+        <v>1.029784878162266</v>
       </c>
       <c r="K19">
-        <v>1.055051361363236</v>
+        <v>1.049179869521375</v>
       </c>
       <c r="L19">
-        <v>1.051018919993917</v>
+        <v>1.034679713390878</v>
       </c>
       <c r="M19">
-        <v>1.063071235978069</v>
+        <v>1.048660378147664</v>
       </c>
       <c r="N19">
-        <v>1.046076261585259</v>
+        <v>1.031247290807233</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038238509467516</v>
+        <v>1.001484264669648</v>
       </c>
       <c r="D20">
-        <v>1.051592619703507</v>
+        <v>1.035041088277509</v>
       </c>
       <c r="E20">
-        <v>1.047497845610654</v>
+        <v>1.020112288962613</v>
       </c>
       <c r="F20">
-        <v>1.059586560360424</v>
+        <v>1.03430008494357</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043761781077736</v>
+        <v>1.049768162329652</v>
       </c>
       <c r="J20">
-        <v>1.044419580119983</v>
+        <v>1.028958090061094</v>
       </c>
       <c r="K20">
-        <v>1.05491257550134</v>
+        <v>1.048494549914985</v>
       </c>
       <c r="L20">
-        <v>1.050831703433512</v>
+        <v>1.033810472662446</v>
       </c>
       <c r="M20">
-        <v>1.06287971613802</v>
+        <v>1.047765479734475</v>
       </c>
       <c r="N20">
-        <v>1.045902775720354</v>
+        <v>1.030419328572123</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03727998914662</v>
+        <v>0.9965837661793188</v>
       </c>
       <c r="D21">
-        <v>1.05093583163814</v>
+        <v>1.03182620805058</v>
       </c>
       <c r="E21">
-        <v>1.046682780979872</v>
+        <v>1.016260699857866</v>
       </c>
       <c r="F21">
-        <v>1.05876013043936</v>
+        <v>1.030383123067168</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04355268332305</v>
+        <v>1.048430609239637</v>
       </c>
       <c r="J21">
-        <v>1.043856582383838</v>
+        <v>1.026225016378622</v>
       </c>
       <c r="K21">
-        <v>1.054461257179283</v>
+        <v>1.04622870859579</v>
       </c>
       <c r="L21">
-        <v>1.050223610505409</v>
+        <v>1.030940420730472</v>
       </c>
       <c r="M21">
-        <v>1.062257573989026</v>
+        <v>1.044810868424511</v>
       </c>
       <c r="N21">
-        <v>1.045338978462846</v>
+        <v>1.027682373611534</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036678228356666</v>
+        <v>0.9934399287009572</v>
       </c>
       <c r="D22">
-        <v>1.050523568618231</v>
+        <v>1.029770293634562</v>
       </c>
       <c r="E22">
-        <v>1.046171488351573</v>
+        <v>1.013797892438901</v>
       </c>
       <c r="F22">
-        <v>1.058241646630095</v>
+        <v>1.027878615289704</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043420396420535</v>
+        <v>1.047565700103154</v>
       </c>
       <c r="J22">
-        <v>1.043502780454195</v>
+        <v>1.024470774758992</v>
       </c>
       <c r="K22">
-        <v>1.054177416878692</v>
+        <v>1.044774198357211</v>
       </c>
       <c r="L22">
-        <v>1.04984172035476</v>
+        <v>1.029100877967767</v>
       </c>
       <c r="M22">
-        <v>1.061866806219696</v>
+        <v>1.042917309076418</v>
       </c>
       <c r="N22">
-        <v>1.044984674093882</v>
+        <v>1.02592564076759</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036997147338476</v>
+        <v>0.9951126532341356</v>
       </c>
       <c r="D23">
-        <v>1.050742051380978</v>
+        <v>1.030863528105991</v>
       </c>
       <c r="E23">
-        <v>1.046442422592719</v>
+        <v>1.015107479736967</v>
       </c>
       <c r="F23">
-        <v>1.058516397305848</v>
+        <v>1.029210363007142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043490601567025</v>
+        <v>1.048026515252457</v>
       </c>
       <c r="J23">
-        <v>1.043690320303881</v>
+        <v>1.025404214521916</v>
       </c>
       <c r="K23">
-        <v>1.054327892963912</v>
+        <v>1.045548155172511</v>
       </c>
       <c r="L23">
-        <v>1.050044125133972</v>
+        <v>1.030079457745087</v>
       </c>
       <c r="M23">
-        <v>1.0620739213423</v>
+        <v>1.043924602939343</v>
       </c>
       <c r="N23">
-        <v>1.045172480271666</v>
+        <v>1.026860406122045</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0382545942981</v>
+        <v>1.001565397042706</v>
       </c>
       <c r="D24">
-        <v>1.051603642318629</v>
+        <v>1.035094416444475</v>
       </c>
       <c r="E24">
-        <v>1.047511529976979</v>
+        <v>1.02017618647472</v>
       </c>
       <c r="F24">
-        <v>1.059600434487695</v>
+        <v>1.034365067789203</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04376527269056</v>
+        <v>1.049790189860754</v>
       </c>
       <c r="J24">
-        <v>1.04442902175178</v>
+        <v>1.029003321166139</v>
       </c>
       <c r="K24">
-        <v>1.054920140475875</v>
+        <v>1.048532043618495</v>
       </c>
       <c r="L24">
-        <v>1.050841905570389</v>
+        <v>1.033858013793164</v>
       </c>
       <c r="M24">
-        <v>1.062890153049383</v>
+        <v>1.047814423715087</v>
       </c>
       <c r="N24">
-        <v>1.045912230760351</v>
+        <v>1.030464623910526</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039717647126326</v>
+        <v>1.008797017238078</v>
       </c>
       <c r="D25">
-        <v>1.052606389161361</v>
+        <v>1.039860847486796</v>
       </c>
       <c r="E25">
-        <v>1.048757200257622</v>
+        <v>1.025888975056274</v>
       </c>
       <c r="F25">
-        <v>1.060863227639441</v>
+        <v>1.040174826796242</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044080421545827</v>
+        <v>1.051736587203811</v>
       </c>
       <c r="J25">
-        <v>1.0452869684067</v>
+        <v>1.033031910702265</v>
       </c>
       <c r="K25">
-        <v>1.055607020850229</v>
+        <v>1.051870356206858</v>
       </c>
       <c r="L25">
-        <v>1.051769557880132</v>
+        <v>1.038098264545493</v>
       </c>
       <c r="M25">
-        <v>1.063839018931781</v>
+        <v>1.052179923887105</v>
       </c>
       <c r="N25">
-        <v>1.046771395797929</v>
+        <v>1.034498934505879</v>
       </c>
     </row>
   </sheetData>
